--- a/src/LlamamientosDoc/ALTAS.xlsx
+++ b/src/LlamamientosDoc/ALTAS.xlsx
@@ -12,19 +12,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <si>
+    <t>Alta/Baja/Modificacion</t>
+  </si>
+  <si>
+    <t>ALTA NUEVA</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>ACATRINEI, CARMEN</t>
+  </si>
+  <si>
+    <t>Dni</t>
+  </si>
+  <si>
+    <t>﻿X7991446G</t>
+  </si>
+  <si>
+    <t>N�SS</t>
+  </si>
+  <si>
+    <t>12/10241033-66</t>
+  </si>
+  <si>
+    <t>Fecha Nacimiento</t>
+  </si>
+  <si>
+    <t>1969-09-22</t>
+  </si>
+  <si>
+    <t>Domicilio</t>
+  </si>
+  <si>
+    <t>Avenida Montendre 9 PO3 B</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>Onda</t>
+  </si>
+  <si>
+    <t>Nacionalidad</t>
+  </si>
+  <si>
+    <t>Rumana</t>
+  </si>
+  <si>
+    <t>Fecha Inicio</t>
+  </si>
+  <si>
+    <t>2023-06-09</t>
+  </si>
+  <si>
+    <t>Fecha Fin</t>
+  </si>
+  <si>
+    <t>2023-06-10</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>VINUP</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>AYUDANTE DE COCINA</t>
+  </si>
+  <si>
+    <t>Horario</t>
+  </si>
+  <si>
+    <t>Lunes;09:30-16:30/...-...
+Martes;09:30-16:30/...-...
+Miercoles;09:30-16:30/...-...
+Jueves;09:30-12:30/...-...
+Viernes;...-.../...-...
+Sabado;...-.../...-...
+Domingo;...-.../...-...
+Visperas;...-.../...-...
+Festivos;...-.../...-...</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="14">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,20 +199,207 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true" horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.53125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="26.48046875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="5">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="7">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="9">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="13">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="15">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="17">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s" s="18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="19">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s" s="20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="23">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s" s="24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="25">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s" s="26">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>